--- a/Machine Learning/Grades.xlsx
+++ b/Machine Learning/Grades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Código</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>CH5 - 8</t>
+  </si>
+  <si>
+    <t>HW3</t>
+  </si>
+  <si>
+    <t>CH6 -2</t>
+  </si>
+  <si>
+    <t>CH4 - 3</t>
+  </si>
+  <si>
+    <t>CH4 - 8</t>
+  </si>
+  <si>
+    <t>CH4 - 11</t>
   </si>
 </sst>
 </file>
@@ -169,9 +184,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -185,13 +222,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="30">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -522,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -682,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -726,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -770,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -785,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -814,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>0.75</v>
@@ -858,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>0.16666666666666666</v>
@@ -873,7 +932,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -902,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -946,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
         <v>0.61458333333333337</v>
@@ -961,7 +1020,7 @@
         <v>0.83630952380952372</v>
       </c>
       <c r="K10" s="3">
-        <v>0.34375</v>
+        <v>0.59375</v>
       </c>
       <c r="L10" s="3">
         <v>0.83630952380952384</v>
@@ -996,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1005,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -1049,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1084,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1128,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1172,7 +1231,7 @@
         <v>0.75</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -1181,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="3">
         <v>0.625</v>
@@ -1190,6 +1249,226 @@
         <v>1</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="N20" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Machine Learning/Grades.xlsx
+++ b/Machine Learning/Grades.xlsx
@@ -584,7 +584,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>0.75</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="K20" s="3">
         <v>0.75</v>

--- a/Machine Learning/Grades.xlsx
+++ b/Machine Learning/Grades.xlsx
@@ -584,7 +584,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1152,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1">
         <v>0.5</v>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>

--- a/Machine Learning/Grades.xlsx
+++ b/Machine Learning/Grades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3800" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Código</t>
   </si>
@@ -118,13 +118,37 @@
   </si>
   <si>
     <t>CH4 - 11</t>
+  </si>
+  <si>
+    <t>CH7-2</t>
+  </si>
+  <si>
+    <t>CH7-3</t>
+  </si>
+  <si>
+    <t>CH7-6</t>
+  </si>
+  <si>
+    <t>CH7-8</t>
+  </si>
+  <si>
+    <t>HW4</t>
+  </si>
+  <si>
+    <t>HWS (60%)</t>
+  </si>
+  <si>
+    <t>EXAM (40%)</t>
+  </si>
+  <si>
+    <t>FINAL GRADE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,8 +184,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +229,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -215,14 +260,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="46">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -237,6 +302,14 @@
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -251,6 +324,14 @@
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -581,15 +662,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -650,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -677,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -694,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -721,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -738,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -765,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -782,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -809,7 +890,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -826,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -870,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -914,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -958,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1002,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>0.8705357142857143</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1029,7 +1110,7 @@
         <v>0.74999999999999989</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1240,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
         <v>0.625</v>
@@ -1257,7 +1338,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1281,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>0.67</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1301,7 +1382,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1313,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1345,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1433,7 +1514,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1445,7 +1526,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="F20" s="3">
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
       <c r="G20" s="3">
         <v>0.45833333333333331</v>
@@ -1457,7 +1538,7 @@
         <v>0.75</v>
       </c>
       <c r="J20" s="3">
-        <v>0.92</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="K20" s="3">
         <v>0.75</v>
@@ -1470,6 +1551,384 @@
       </c>
       <c r="N20" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="5">
+        <f>(B25+B20+B15+B10)*(20/4)</f>
+        <v>15</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:N27" si="0">(C25+C20+C15+C10)*(20/4)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>9.5610119047619051</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>9.1145833333333321</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="0"/>
+        <v>13.583333333333334</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="0"/>
+        <v>18.764880952380953</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="0"/>
+        <v>11.71875</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="0"/>
+        <v>16.99404761904762</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="0"/>
+        <v>18.4375</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="5">
+        <v>17</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>16</v>
+      </c>
+      <c r="F29" s="5">
+        <v>19</v>
+      </c>
+      <c r="G29" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="H29" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="I29" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="J29" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="K29" s="5">
+        <v>12.833333333333332</v>
+      </c>
+      <c r="L29" s="5">
+        <v>18</v>
+      </c>
+      <c r="M29" s="5">
+        <v>14</v>
+      </c>
+      <c r="N29" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="25">
+      <c r="A31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="7">
+        <f>B27*0.6+B29*0.4</f>
+        <v>15.8</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" ref="C31:N31" si="1">C27*0.6+C29*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="1"/>
+        <v>12.136607142857144</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="1"/>
+        <v>18.850000000000001</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="1"/>
+        <v>13.268750000000001</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>15.15</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="1"/>
+        <v>17.45</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="1"/>
+        <v>17.858928571428571</v>
+      </c>
+      <c r="K31" s="7">
+        <f t="shared" si="1"/>
+        <v>12.164583333333333</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="1"/>
+        <v>17.396428571428572</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" si="1"/>
+        <v>16.662500000000001</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" si="1"/>
+        <v>9.1000000000000014</v>
       </c>
     </row>
   </sheetData>

--- a/Machine Learning/Grades.xlsx
+++ b/Machine Learning/Grades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,9 +229,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -287,7 +293,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="52">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -310,6 +316,9 @@
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -332,6 +341,9 @@
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -665,7 +677,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1573,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H21" s="1">
         <v>0.2</v>
@@ -1585,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
@@ -1617,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -1629,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
@@ -1661,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -1673,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
@@ -1705,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -1717,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L24" s="1">
         <v>1</v>
@@ -1749,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="H25" s="3">
         <v>0.8</v>
@@ -1761,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="3">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="L25" s="3">
         <v>1</v>
@@ -1799,7 +1811,7 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>9.1145833333333321</v>
+        <v>13.802083333333332</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="0"/>
@@ -1815,7 +1827,7 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" si="0"/>
-        <v>11.71875</v>
+        <v>15.15625</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="0"/>
@@ -1900,7 +1912,7 @@
       </c>
       <c r="G31" s="7">
         <f t="shared" si="1"/>
-        <v>13.268750000000001</v>
+        <v>16.081249999999997</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
@@ -1916,7 +1928,7 @@
       </c>
       <c r="K31" s="7">
         <f t="shared" si="1"/>
-        <v>12.164583333333333</v>
+        <v>14.227083333333333</v>
       </c>
       <c r="L31" s="7">
         <f t="shared" si="1"/>
